--- a/data/trans_dic/Predimed_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.170563302577732</v>
+        <v>0.1697989185423883</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1821606312383633</v>
+        <v>0.1806070664588076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1849173080065767</v>
+        <v>0.1838575872204376</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2424033306066715</v>
+        <v>0.2452804766420602</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2494834597333927</v>
+        <v>0.2467593976956854</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2367212503397125</v>
+        <v>0.2371387879501574</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1423083222567479</v>
+        <v>0.1440237667859545</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2015193182086042</v>
+        <v>0.2036732633344944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1826407429088372</v>
+        <v>0.1806375712326745</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2228482524711578</v>
+        <v>0.2178780104855833</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2728404115054894</v>
+        <v>0.2765832585335153</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2352327446606469</v>
+        <v>0.2334081776037551</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1770208115519372</v>
+        <v>0.1799301539518595</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1905864176314745</v>
+        <v>0.1900763356784486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1953192983314988</v>
+        <v>0.1916451391878543</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2608070122043155</v>
+        <v>0.2624539199524522</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.308473892120964</v>
+        <v>0.3115379373305716</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2602397792811826</v>
+        <v>0.2582474169670598</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.196926683228893</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2057096144962189</v>
+        <v>0.2057096144962188</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2007822299252512</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1709375619203628</v>
+        <v>0.1721296503804656</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1816425823676643</v>
+        <v>0.183273453882317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1816287577909356</v>
+        <v>0.1813960842471468</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2240320668300417</v>
+        <v>0.2258344455306651</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2309590641870704</v>
+        <v>0.2322179064407568</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2189573474880512</v>
+        <v>0.2192203783899218</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1035921779901572</v>
+        <v>0.1035921779901573</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1737282995765189</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08028695237721153</v>
+        <v>0.07625374117879601</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1510462508387168</v>
+        <v>0.1516937828841609</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1266186129659617</v>
+        <v>0.1284039742727429</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1378101996966967</v>
+        <v>0.1358780227884102</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1986290061543077</v>
+        <v>0.1968502406134216</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.163412342485077</v>
+        <v>0.1643617630398258</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.07121711807121341</v>
+        <v>0.07121711807121342</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.120351248831963</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02977030125702491</v>
+        <v>0.03158729458185276</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1003497047836719</v>
+        <v>0.09903814455812159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09426764917001509</v>
+        <v>0.09123962754288782</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1441834986354726</v>
+        <v>0.1456864275418293</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1463514012498771</v>
+        <v>0.1409095744646909</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1321904239070287</v>
+        <v>0.1317683159890512</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.160902756690466</v>
+        <v>0.1610189247407373</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1749884820332896</v>
+        <v>0.1744938538162083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1714413167053867</v>
+        <v>0.1720698853295617</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1916485050126314</v>
+        <v>0.1904928062960597</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1974745730993798</v>
+        <v>0.1973639215077399</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1890468630133695</v>
+        <v>0.1903869113548561</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89738</v>
+        <v>89335</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>86197</v>
+        <v>85462</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>184791</v>
+        <v>183732</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>127534</v>
+        <v>129048</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>118054</v>
+        <v>116765</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>236560</v>
+        <v>236977</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>65098</v>
+        <v>65883</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>82577</v>
+        <v>83460</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>158389</v>
+        <v>156651</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>101940</v>
+        <v>99667</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>111802</v>
+        <v>113336</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>203997</v>
+        <v>202415</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>78746</v>
+        <v>80041</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33625</v>
+        <v>33535</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>121346</v>
+        <v>119063</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>116018</v>
+        <v>116751</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>54423</v>
+        <v>54964</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>161679</v>
+        <v>160441</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>178806</v>
+        <v>180053</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>148673</v>
+        <v>150008</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>338651</v>
+        <v>338217</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>234344</v>
+        <v>236230</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>189038</v>
+        <v>190068</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>408251</v>
+        <v>408741</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>41720</v>
+        <v>39624</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>117452</v>
+        <v>117956</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>164253</v>
+        <v>166569</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>71611</v>
+        <v>70607</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>154452</v>
+        <v>153069</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>211983</v>
+        <v>213215</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5906</v>
+        <v>6266</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>77356</v>
+        <v>76345</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>91369</v>
+        <v>88434</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>28604</v>
+        <v>28902</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>112817</v>
+        <v>108622</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>128126</v>
+        <v>127717</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>513677</v>
+        <v>514047</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>599570</v>
+        <v>597875</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1134737</v>
+        <v>1138897</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>611831</v>
+        <v>608142</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>676615</v>
+        <v>676236</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1251265</v>
+        <v>1260134</v>
       </c>
     </row>
     <row r="32">
